--- a/data/总结 - 20220709 - filter.xlsx
+++ b/data/总结 - 20220709 - filter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Box\Cov2_protein\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA30D131-2553-45EE-95EF-9ECA4E658855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8528BCDA-8EF2-4712-A8A3-A487DF11D6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E5483962-68E5-4AD9-AF09-64285FDD6BB3}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="293">
   <si>
     <t>突变</t>
   </si>
@@ -1140,6 +1140,10 @@
   </si>
   <si>
     <t>Detection (c) (20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>De-escalated variants</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2191,7 +2195,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2199,7 +2203,7 @@
     <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.75" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="28.625" customWidth="1"/>
+    <col min="5" max="5" width="43.75" customWidth="1"/>
     <col min="6" max="6" width="25.625" style="5" customWidth="1"/>
     <col min="7" max="7" width="32.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.375" bestFit="1" customWidth="1"/>
@@ -2337,7 +2341,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -2364,12 +2368,12 @@
         <v>183</v>
       </c>
       <c r="J5" t="s">
-        <v>152</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -2401,7 +2405,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>149</v>
@@ -2433,7 +2437,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -2465,7 +2469,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>96</v>
@@ -2497,7 +2501,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>99</v>
@@ -2529,7 +2533,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>102</v>
@@ -2561,7 +2565,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -2593,7 +2597,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -2625,7 +2629,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -2657,7 +2661,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>85</v>
@@ -2689,7 +2693,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -2721,7 +2725,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -2753,7 +2757,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -2785,7 +2789,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>85</v>
@@ -2817,7 +2821,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>85</v>
@@ -2849,7 +2853,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>85</v>
@@ -2881,7 +2885,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>116</v>
@@ -2913,7 +2917,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>119</v>
@@ -2945,7 +2949,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>85</v>
@@ -2977,7 +2981,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>85</v>
@@ -3009,7 +3013,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>85</v>
@@ -3041,7 +3045,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>85</v>
@@ -3073,7 +3077,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>148</v>
@@ -3105,7 +3109,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>107</v>
@@ -3137,7 +3141,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>85</v>
@@ -3169,7 +3173,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>85</v>
@@ -3201,7 +3205,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>85</v>
@@ -3233,7 +3237,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>86</v>
@@ -3265,7 +3269,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>89</v>
@@ -3297,7 +3301,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>92</v>
